--- a/optimize_split/real_data/vgg19_CIFAR.xlsx
+++ b/optimize_split/real_data/vgg19_CIFAR.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joanatirana/Desktop/delft-visiting/optimize code/scheduling-jobs/real_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joanatirana/Documents/git_repos/Pipelined-Federeated-Split-Learning/optimize_split/real_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B932787C-FB71-2F4E-A692-653D0A5E203B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B780C3A1-6C24-0340-BD0D-8DD8D2EA1890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{44E62F82-01C5-1D43-A5E9-BE0EC7E43EDB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{44E62F82-01C5-1D43-A5E9-BE0EC7E43EDB}"/>
   </bookViews>
   <sheets>
-    <sheet name="laptop" sheetId="1" r:id="rId1"/>
-    <sheet name="VM" sheetId="2" r:id="rId2"/>
+    <sheet name="VM" sheetId="1" r:id="rId1"/>
+    <sheet name="laptop" sheetId="2" r:id="rId2"/>
     <sheet name="d1" sheetId="3" r:id="rId3"/>
     <sheet name="d2" sheetId="4" r:id="rId4"/>
     <sheet name="jetson-cpu" sheetId="6" r:id="rId5"/>
     <sheet name="jetson-gpu" sheetId="7" r:id="rId6"/>
     <sheet name="memory" sheetId="5" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">VM!$A$1:$A$25</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">VM!$B$1:$B$25</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">VM!$A$1:$A$25</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">VM!$B$1:$B$25</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">VM!$A$1:$A$25</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">VM!$B$1:$B$25</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -404,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66690E67-5FCE-6A4A-826E-A212024B2386}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -694,7 +702,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B730A547-5862-2A42-A864-107AD30BD13F}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1852,7 +1862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3BF799-479E-6A42-935D-4EB5663C7D55}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>

--- a/optimize_split/real_data/vgg19_CIFAR.xlsx
+++ b/optimize_split/real_data/vgg19_CIFAR.xlsx
@@ -1,34 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joanatirana/Documents/git_repos/Pipelined-Federeated-Split-Learning/optimize_split/real_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B780C3A1-6C24-0340-BD0D-8DD8D2EA1890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007071DD-BD82-1D41-A474-52367531B0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{44E62F82-01C5-1D43-A5E9-BE0EC7E43EDB}"/>
+    <workbookView xWindow="11420" yWindow="500" windowWidth="10000" windowHeight="17500" activeTab="7" xr2:uid="{44E62F82-01C5-1D43-A5E9-BE0EC7E43EDB}"/>
   </bookViews>
   <sheets>
     <sheet name="VM" sheetId="1" r:id="rId1"/>
-    <sheet name="laptop" sheetId="2" r:id="rId2"/>
-    <sheet name="d1" sheetId="3" r:id="rId3"/>
-    <sheet name="d2" sheetId="4" r:id="rId4"/>
-    <sheet name="jetson-cpu" sheetId="6" r:id="rId5"/>
-    <sheet name="jetson-gpu" sheetId="7" r:id="rId6"/>
-    <sheet name="memory" sheetId="5" r:id="rId7"/>
+    <sheet name="VM__" sheetId="8" r:id="rId2"/>
+    <sheet name="laptop" sheetId="2" r:id="rId3"/>
+    <sheet name="d1" sheetId="3" r:id="rId4"/>
+    <sheet name="d2" sheetId="4" r:id="rId5"/>
+    <sheet name="jetson-cpu" sheetId="6" r:id="rId6"/>
+    <sheet name="jetson-gpu" sheetId="7" r:id="rId7"/>
+    <sheet name="memory" sheetId="5" r:id="rId8"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">VM!$A$1:$A$25</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">VM!$B$1:$B$25</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">VM!$A$1:$A$25</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">VM!$B$1:$B$25</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">VM!$A$1:$A$25</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">VM!$B$1:$B$25</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -51,7 +44,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -71,13 +64,26 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -89,15 +95,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -410,15 +419,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66690E67-5FCE-6A4A-826E-A212024B2386}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>8.3103400000000001</v>
       </c>
@@ -428,8 +437,12 @@
       <c r="C1" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E1">
+        <f>A1+B1+C1</f>
+        <v>23.75864</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>46.103400000000001</v>
       </c>
@@ -439,8 +452,12 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <f t="shared" ref="E2:E25" si="0">A2+B2+C2</f>
+        <v>190.2064</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>7.5172400000000001</v>
       </c>
@@ -450,8 +467,12 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>11.31034</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>25.379300000000001</v>
       </c>
@@ -461,8 +482,12 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>116.2414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>48.137900000000002</v>
       </c>
@@ -472,8 +497,12 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>238.06890000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3.8620700000000001</v>
       </c>
@@ -483,8 +512,12 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>5.3103499999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>27.586200000000002</v>
       </c>
@@ -494,8 +527,12 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>131.6892</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>52.862099999999998</v>
       </c>
@@ -505,8 +542,12 @@
       <c r="C8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>256.1721</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>52.862099999999998</v>
       </c>
@@ -516,8 +557,12 @@
       <c r="C9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>260.00009999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>52.655200000000001</v>
       </c>
@@ -527,8 +572,12 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>259.68919999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1.9655199999999999</v>
       </c>
@@ -538,8 +587,12 @@
       <c r="C11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>2.8275889999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>36.137900000000002</v>
       </c>
@@ -549,8 +602,12 @@
       <c r="C12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>165.4829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>71.551699999999997</v>
       </c>
@@ -560,8 +617,12 @@
       <c r="C13" s="1">
         <v>1.5384599999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>329.36615999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>71.724100000000007</v>
       </c>
@@ -571,8 +632,12 @@
       <c r="C14" s="1">
         <v>1.61538</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>330.02948000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>72.137900000000002</v>
       </c>
@@ -582,8 +647,12 @@
       <c r="C15" s="1">
         <v>1.5384599999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>323.77936</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1.0344800000000001</v>
       </c>
@@ -593,8 +662,12 @@
       <c r="C16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.0344800000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>29.758600000000001</v>
       </c>
@@ -604,8 +677,12 @@
       <c r="C17" s="1">
         <v>1.2307699999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>180.61037000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>29.7241</v>
       </c>
@@ -615,8 +692,12 @@
       <c r="C18" s="1">
         <v>1.15385</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>178.42994999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>30.206900000000001</v>
       </c>
@@ -626,8 +707,12 @@
       <c r="C19" s="1">
         <v>1.0769200000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>179.24982</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>29.758600000000001</v>
       </c>
@@ -637,8 +722,12 @@
       <c r="C20" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>179.0686</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -648,8 +737,12 @@
       <c r="C21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.206897</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>25.379300000000001</v>
       </c>
@@ -659,8 +752,12 @@
       <c r="C22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>49.241399999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>105.69</v>
       </c>
@@ -670,8 +767,12 @@
       <c r="C23" s="1">
         <v>121.30800000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>508.584</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>19.206900000000001</v>
       </c>
@@ -681,8 +782,12 @@
       <c r="C24" s="1">
         <v>19.461500000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>82.737400000000008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>0.24137900000000001</v>
       </c>
@@ -691,6 +796,10 @@
       </c>
       <c r="C25" s="1">
         <v>0</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0.62068900000000005</v>
       </c>
     </row>
   </sheetData>
@@ -699,6 +808,826 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC84AB4-E990-6943-A6A0-64632BBCA264}">
+  <dimension ref="A1:Q30"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>8.3103400000000001</v>
+      </c>
+      <c r="B1" s="1">
+        <v>15.4483</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f>SUM(A1:C1)</f>
+        <v>23.75864</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>46.103400000000001</v>
+      </c>
+      <c r="B2" s="1">
+        <v>144.10300000000001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E25" si="0">SUM(A2:C2)</f>
+        <v>190.2064</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>7.5172400000000001</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3.7930999999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>11.31034</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3">
+        <f>SUM(E2:E5)</f>
+        <v>555.82704000000001</v>
+      </c>
+      <c r="P3">
+        <f>SUM(A2:A5)</f>
+        <v>127.13784000000001</v>
+      </c>
+      <c r="Q3">
+        <f>SUM(B2:C5)</f>
+        <v>428.68920000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>25.379300000000001</v>
+      </c>
+      <c r="B4" s="1">
+        <v>90.862099999999998</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>116.2414</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4">
+        <f>SUM(E2:E8)</f>
+        <v>948.99869000000001</v>
+      </c>
+      <c r="L4">
+        <f>SUM(A2:A8)</f>
+        <v>211.44820999999999</v>
+      </c>
+      <c r="M4">
+        <f>SUM(B2:C8)</f>
+        <v>737.55048000000011</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4">
+        <f>SUM(E6:E9)</f>
+        <v>653.17174999999997</v>
+      </c>
+      <c r="P4">
+        <f>SUM(A6:A9)</f>
+        <v>137.17247</v>
+      </c>
+      <c r="Q4">
+        <f>SUM(B6:C9)</f>
+        <v>515.99928</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>48.137900000000002</v>
+      </c>
+      <c r="B5" s="1">
+        <v>189.93100000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>238.06890000000001</v>
+      </c>
+      <c r="G5">
+        <f>SUM(E2:E9)</f>
+        <v>1208.9987900000001</v>
+      </c>
+      <c r="H5">
+        <f>SUM(A2:A9)</f>
+        <v>264.31030999999996</v>
+      </c>
+      <c r="I5">
+        <f>SUM(B2:C9)</f>
+        <v>944.68848000000014</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5">
+        <f>SUM(E9:E12)</f>
+        <v>687.99978899999996</v>
+      </c>
+      <c r="L5">
+        <f>SUM(A9:A12)</f>
+        <v>143.62072000000001</v>
+      </c>
+      <c r="M5">
+        <f>SUM(B9:C12)</f>
+        <v>544.37906900000007</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5">
+        <f>SUM(E10:E13)</f>
+        <v>757.36584900000003</v>
+      </c>
+      <c r="P5">
+        <f>SUM(A10:A13)</f>
+        <v>162.31031999999999</v>
+      </c>
+      <c r="Q5">
+        <f>SUM(B10:C13)</f>
+        <v>595.05552899999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>3.8620700000000001</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.44828</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>5.3103499999999997</v>
+      </c>
+      <c r="G6">
+        <f>SUM(E10:E17)</f>
+        <v>1592.8195390000001</v>
+      </c>
+      <c r="H6">
+        <f>SUM(A10:A17)</f>
+        <v>336.96539999999999</v>
+      </c>
+      <c r="I6">
+        <f>SUM(B10:C17)</f>
+        <v>1255.854139</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6">
+        <f>SUM(E13:E18)</f>
+        <v>1343.2498000000001</v>
+      </c>
+      <c r="L6">
+        <f>SUM(A13:A18)</f>
+        <v>275.93088</v>
+      </c>
+      <c r="M6">
+        <f>SUM(B13:C18)</f>
+        <v>1067.3189199999997</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6">
+        <f>SUM(E14:E19)</f>
+        <v>1193.13346</v>
+      </c>
+      <c r="P6">
+        <f>SUM(A14:A19)</f>
+        <v>234.58608000000001</v>
+      </c>
+      <c r="Q6">
+        <f>SUM(B14:C19)</f>
+        <v>958.54738000000009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>27.586200000000002</v>
+      </c>
+      <c r="B7" s="1">
+        <v>104.10299999999999</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>131.6892</v>
+      </c>
+      <c r="G7">
+        <f>SUM(E18:E24)</f>
+        <v>1177.518067</v>
+      </c>
+      <c r="H7">
+        <f>SUM(A18:A24)</f>
+        <v>239.96579999999997</v>
+      </c>
+      <c r="I7">
+        <f>SUM(B18:C24)</f>
+        <v>937.55226699999992</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7">
+        <f>SUM(E19:E24)</f>
+        <v>999.08811700000001</v>
+      </c>
+      <c r="L7">
+        <f>SUM(A19:A24)</f>
+        <v>210.24170000000001</v>
+      </c>
+      <c r="M7">
+        <f>SUM(B19:C24)</f>
+        <v>788.84641700000009</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7">
+        <f>SUM(E20:E24)</f>
+        <v>819.83829700000001</v>
+      </c>
+      <c r="P7">
+        <f>SUM(A20:A24)</f>
+        <v>180.03479999999999</v>
+      </c>
+      <c r="Q7">
+        <f>SUM(B20:C24)</f>
+        <v>639.80349699999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>52.862099999999998</v>
+      </c>
+      <c r="B8" s="1">
+        <v>203.31</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>256.1721</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>52.862099999999998</v>
+      </c>
+      <c r="B9" s="1">
+        <v>207.13800000000001</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>260.00009999999997</v>
+      </c>
+      <c r="H9">
+        <f>MAX(H5:H7)</f>
+        <v>336.96539999999999</v>
+      </c>
+      <c r="I9">
+        <f>MAX(I5:I7)</f>
+        <v>1255.854139</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="L9">
+        <f>MAX(L4:L7)</f>
+        <v>275.93088</v>
+      </c>
+      <c r="M9">
+        <f>MAX(M4:M7)</f>
+        <v>1067.3189199999997</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="P9">
+        <f>MAX(P3:P7)</f>
+        <v>234.58608000000001</v>
+      </c>
+      <c r="Q9">
+        <f>MAX(Q3:Q7)</f>
+        <v>958.54738000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>52.655200000000001</v>
+      </c>
+      <c r="B10" s="1">
+        <v>207.03399999999999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>259.68919999999997</v>
+      </c>
+      <c r="H10">
+        <f>SUM(H9:I9)</f>
+        <v>1592.8195390000001</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="L10">
+        <f>SUM(L9:M9)</f>
+        <v>1343.2497999999996</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="P10">
+        <f>SUM(P9:Q9)</f>
+        <v>1193.13346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1.9655199999999999</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.86206899999999997</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>2.8275889999999997</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>36.137900000000002</v>
+      </c>
+      <c r="B12" s="1">
+        <v>129.345</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>165.4829</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>71.551699999999997</v>
+      </c>
+      <c r="B13" s="1">
+        <v>256.27600000000001</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.5384599999999999</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>329.36615999999998</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>71.724100000000007</v>
+      </c>
+      <c r="B14" s="1">
+        <v>256.69</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.61538</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>330.02948000000004</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="P14">
+        <f>SUM(A2:A5)</f>
+        <v>127.13784000000001</v>
+      </c>
+      <c r="Q14">
+        <f>SUM(B2:C5)</f>
+        <v>428.68920000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>72.137900000000002</v>
+      </c>
+      <c r="B15" s="1">
+        <v>250.10300000000001</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.5384599999999999</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>323.77936</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="L15">
+        <f>SUM(A2:A7)</f>
+        <v>158.58610999999999</v>
+      </c>
+      <c r="M15">
+        <f>SUM(B2:C7)</f>
+        <v>534.24048000000005</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="P15">
+        <f>SUM(B6:B10)</f>
+        <v>723.03327999999999</v>
+      </c>
+      <c r="Q15">
+        <f>SUM(B6:C10)</f>
+        <v>723.03327999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>1.0344800000000001</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.0344800000000001</v>
+      </c>
+      <c r="G16">
+        <f>SUM(E2:E9)</f>
+        <v>1208.9987900000001</v>
+      </c>
+      <c r="H16">
+        <f>SUM(A2:A9)</f>
+        <v>264.31030999999996</v>
+      </c>
+      <c r="I16">
+        <f>SUM(B2:C9)</f>
+        <v>944.68848000000014</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="L16">
+        <f>SUM(A8:A13)</f>
+        <v>268.03451999999999</v>
+      </c>
+      <c r="M16">
+        <f>SUM(B7:C13)</f>
+        <v>1109.6065290000001</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="P16">
+        <f>SUM(B11:B15)</f>
+        <v>893.27606900000001</v>
+      </c>
+      <c r="Q16">
+        <f>SUM(B11:C15)</f>
+        <v>897.96836899999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>29.758600000000001</v>
+      </c>
+      <c r="B17" s="1">
+        <v>149.62100000000001</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.2307699999999999</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>180.61037000000002</v>
+      </c>
+      <c r="G17">
+        <f>SUM(E10:E17)</f>
+        <v>1592.8195390000001</v>
+      </c>
+      <c r="H17">
+        <f>SUM(A10:A17)</f>
+        <v>336.96539999999999</v>
+      </c>
+      <c r="I17">
+        <f>SUM(B10:C17)</f>
+        <v>1255.854139</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="L17">
+        <f>SUM(A14:A19)</f>
+        <v>234.58608000000001</v>
+      </c>
+      <c r="M17">
+        <f>SUM(B14:C20)</f>
+        <v>1107.8573800000001</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="P17">
+        <f>SUM(B16:B20)</f>
+        <v>592.44900000000007</v>
+      </c>
+      <c r="Q17">
+        <f>SUM(C16:C20)</f>
+        <v>5.4615400000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>29.7241</v>
+      </c>
+      <c r="B18" s="1">
+        <v>147.55199999999999</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.15385</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>178.42994999999999</v>
+      </c>
+      <c r="G18">
+        <f>SUM(E18:E24)</f>
+        <v>1177.518067</v>
+      </c>
+      <c r="H18">
+        <f>SUM(A18:A24)</f>
+        <v>239.96579999999997</v>
+      </c>
+      <c r="I18">
+        <f>SUM(B18:C24)</f>
+        <v>937.55226699999992</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="L18">
+        <f>SUM(A20:A24)</f>
+        <v>180.03479999999999</v>
+      </c>
+      <c r="M18">
+        <f>SUM(B20:C24)</f>
+        <v>639.80349699999999</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="O18">
+        <f>SUM(E20:E24)</f>
+        <v>819.83829700000001</v>
+      </c>
+      <c r="P18">
+        <f>SUM(A20:A24)</f>
+        <v>180.03479999999999</v>
+      </c>
+      <c r="Q18">
+        <f>SUM(B20:C24)</f>
+        <v>639.80349699999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>30.206900000000001</v>
+      </c>
+      <c r="B19" s="1">
+        <v>147.96600000000001</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.0769200000000001</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>179.24982</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>29.758600000000001</v>
+      </c>
+      <c r="B20" s="1">
+        <v>147.31</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>179.0686</v>
+      </c>
+      <c r="H20">
+        <f>MAX(H16:H18)</f>
+        <v>336.96539999999999</v>
+      </c>
+      <c r="I20">
+        <f>MAX(I16:I18)</f>
+        <v>1255.854139</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="L20">
+        <f>MAX(L15:L18)</f>
+        <v>268.03451999999999</v>
+      </c>
+      <c r="M20">
+        <f>MAX(M15:M18)</f>
+        <v>1109.6065290000001</v>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="P20">
+        <f>MAX(P14:P18)</f>
+        <v>893.27606900000001</v>
+      </c>
+      <c r="Q20">
+        <f>MAX(Q14:Q18)</f>
+        <v>897.96836899999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.206897</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.206897</v>
+      </c>
+      <c r="H21">
+        <f>SUM(H20:I20)</f>
+        <v>1592.8195390000001</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="L21">
+        <f>SUM(L20:M20)</f>
+        <v>1377.6410490000001</v>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="P21">
+        <f>SUM(P20:Q20)</f>
+        <v>1791.2444379999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>25.379300000000001</v>
+      </c>
+      <c r="B22" s="1">
+        <v>23.862100000000002</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>49.241399999999999</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>105.69</v>
+      </c>
+      <c r="B23" s="1">
+        <v>281.58600000000001</v>
+      </c>
+      <c r="C23" s="1">
+        <v>121.30800000000001</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>508.584</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>19.206900000000001</v>
+      </c>
+      <c r="B24" s="1">
+        <v>44.069000000000003</v>
+      </c>
+      <c r="C24" s="1">
+        <v>19.461500000000001</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>82.737400000000008</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>0.24137900000000001</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.37930999999999998</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0.62068900000000005</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <f>SUM(E2:E24)</f>
+        <v>3979.3363959999997</v>
+      </c>
+      <c r="H28">
+        <f>E28/3</f>
+        <v>1326.4454653333332</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="L28">
+        <f>E28/4</f>
+        <v>994.83409899999992</v>
+      </c>
+      <c r="N28" s="3"/>
+      <c r="P28">
+        <f>E28/5</f>
+        <v>795.86727919999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <f>COUNT(E2:E24)</f>
+        <v>23</v>
+      </c>
+      <c r="H29">
+        <f>E29/3</f>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="L29">
+        <f>E29/4</f>
+        <v>5.75</v>
+      </c>
+      <c r="N29" s="3"/>
+      <c r="P29">
+        <f>E29/5</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B730A547-5862-2A42-A864-107AD30BD13F}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -988,7 +1917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13013C4-5D45-384F-B807-0F2DB7698732}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -1278,7 +2207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CD9CE4-C2DE-5041-8469-82CCEAE8B1CB}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -1568,7 +2497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39ED57A4-1B7B-CB41-A431-16817272A1EF}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -1858,7 +2787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3BF799-479E-6A42-935D-4EB5663C7D55}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -2148,219 +3077,325 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28767569-E4B9-EF4B-86CB-2DE1B950E61D}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>32769.568359375</v>
       </c>
       <c r="B1" s="1">
         <v>10.056640625</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D1">
+        <f t="shared" ref="D1:D24" si="0">(A1+B1)/1024</f>
+        <v>32.0113525390625</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>32769.568359375</v>
       </c>
       <c r="B2" s="1">
         <v>147.306640625</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>32.1453857421875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>9249.568359375</v>
       </c>
       <c r="B3" s="1">
         <v>1.880859375</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>9.0346183776855469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>18497.568359375</v>
       </c>
       <c r="B4" s="1">
         <v>291.556640625</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>18.3487548828125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>18497.568359375</v>
       </c>
       <c r="B5" s="1">
         <v>579.556640625</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>18.6300048828125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5185.568359375</v>
       </c>
       <c r="B6" s="1">
         <v>1.880859375</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>5.0658683776855469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>10369.568359375</v>
       </c>
       <c r="B7" s="1">
         <v>1156.056640625</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>11.2554931640625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>10369.568359375</v>
       </c>
       <c r="B8" s="1">
         <v>2308.056640625</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>12.3804931640625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>10369.568359375</v>
       </c>
       <c r="B9" s="1">
         <v>2308.056640625</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>12.3804931640625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>10369.568359375</v>
       </c>
       <c r="B10" s="1">
         <v>2308.056640625</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>12.3804931640625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>3201.568359375</v>
       </c>
       <c r="B11" s="1">
         <v>1.880859375</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>3.1283683776855469</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>6401.568359375</v>
       </c>
       <c r="B12" s="1">
         <v>4613.056640625</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>10.7564697265625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>6401.568359375</v>
       </c>
       <c r="B13" s="1">
         <v>9221.056640625</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>15.2564697265625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>6401.568359375</v>
       </c>
       <c r="B14" s="1">
         <v>9221.056640625</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>15.2564697265625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>6401.568359375</v>
       </c>
       <c r="B15" s="1">
         <v>9221.056640625</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>15.2564697265625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2305.568359375</v>
       </c>
       <c r="B16" s="1">
         <v>1.880859375</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>2.2533683776855469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2305.568359375</v>
       </c>
       <c r="B17" s="1">
         <v>9221.056640625</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>11.2564697265625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2305.568359375</v>
       </c>
       <c r="B18" s="1">
         <v>9221.056640625</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>11.2564697265625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2305.568359375</v>
       </c>
       <c r="B19" s="1">
         <v>9221.056640625</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>11.2564697265625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2305.568359375</v>
       </c>
       <c r="B20" s="1">
         <v>9221.056640625</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>11.2564697265625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1025.568359375</v>
       </c>
       <c r="B21" s="1">
         <v>1.880859375</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1.0033683776855469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>12545.568359375</v>
       </c>
       <c r="B22" s="1">
         <v>1.880859375</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>12.253368377685547</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2049.568359375</v>
       </c>
       <c r="B23" s="1">
         <v>401427.056640625</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>394.0201416015625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>209.37897682189899</v>
       </c>
       <c r="B24" s="1">
         <v>65555.802734375</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>64.223810264840722</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>209.37897682189899</v>
       </c>
       <c r="B25" s="1">
         <v>163.056640625</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <f>(A25+B25)/1024</f>
+        <v>0.36370665766298726</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <f>SUM(D1:D25)</f>
+        <v>742.43084730580449</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
